--- a/Data/export_land_primary.xlsx
+++ b/Data/export_land_primary.xlsx
@@ -956,7 +956,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data/export_land_primary.xlsx
+++ b/Data/export_land_primary.xlsx
@@ -956,7 +956,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -967,7 +967,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
